--- a/BOMandCPL/Sprite_BOM.xlsx
+++ b/BOMandCPL/Sprite_BOM.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="sprite" localSheetId="0">Sheet1!$A$7:$F$27</definedName>
+    <definedName name="sprite" localSheetId="0">Sheet1!$A$7:$F$26</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="134">
   <si>
     <t>Qty</t>
   </si>
@@ -220,12 +220,6 @@
     <t>32KHZ</t>
   </si>
   <si>
-    <t>SPRITE_PIN</t>
-  </si>
-  <si>
-    <t>GNDPIN, VCCPIN</t>
-  </si>
-  <si>
     <t>TRISOLX-WING</t>
   </si>
   <si>
@@ -388,18 +382,6 @@
     <t>AVX Corp./Kyocera Corp.</t>
   </si>
   <si>
-    <t>Pins</t>
-  </si>
-  <si>
-    <t>ED1088CT-ND</t>
-  </si>
-  <si>
-    <t>1508-0-57-15-00-00-03-0</t>
-  </si>
-  <si>
-    <t>Mill-Max Manufacturing Corp.</t>
-  </si>
-  <si>
     <t>Solar Cells</t>
   </si>
   <si>
@@ -424,9 +406,6 @@
     <t>0-ohm resistors connected to solar panels</t>
   </si>
   <si>
-    <t>R9, R10, R11, R12</t>
-  </si>
-  <si>
     <t>311-0.0ARTR-ND</t>
   </si>
   <si>
@@ -440,6 +419,30 @@
   </si>
   <si>
     <t>RC0805JR-071KL</t>
+  </si>
+  <si>
+    <t>Battery Holder</t>
+  </si>
+  <si>
+    <t>20MM Coin</t>
+  </si>
+  <si>
+    <t>CR202</t>
+  </si>
+  <si>
+    <t>Coin battery holder</t>
+  </si>
+  <si>
+    <t>BAT-HLD-001-ND</t>
+  </si>
+  <si>
+    <t>BAT-HLD-001</t>
+  </si>
+  <si>
+    <t>Linx Technologies Inc.</t>
+  </si>
+  <si>
+    <t>R9, R10</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -567,9 +570,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -923,7 +923,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -940,17 +940,17 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="B2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -973,13 +973,13 @@
         <v>5</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -1002,13 +1002,13 @@
         <v>9</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1016,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1031,13 +1031,13 @@
         <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -1057,16 +1057,16 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="I10" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1089,13 +1089,13 @@
         <v>20</v>
       </c>
       <c r="G11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1106,7 +1106,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1">
         <v>805</v>
@@ -1118,13 +1118,13 @@
         <v>24</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1147,13 +1147,13 @@
         <v>20</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1176,13 +1176,13 @@
         <v>20</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1205,13 +1205,13 @@
         <v>33</v>
       </c>
       <c r="G15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
@@ -1234,13 +1234,13 @@
         <v>24</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1263,13 +1263,13 @@
         <v>20</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1292,13 +1292,13 @@
         <v>24</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1318,16 +1318,16 @@
         <v>40</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>41</v>
@@ -1350,13 +1350,13 @@
         <v>44</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1364,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>45</v>
@@ -1379,13 +1379,13 @@
         <v>48</v>
       </c>
       <c r="G21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>49</v>
@@ -1408,13 +1408,13 @@
         <v>51</v>
       </c>
       <c r="G22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>52</v>
@@ -1434,16 +1434,16 @@
         <v>53</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="I23" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1451,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>54</v>
@@ -1463,16 +1463,16 @@
         <v>55</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>56</v>
@@ -1492,16 +1492,16 @@
         <v>58</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="I25" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1509,92 +1509,93 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D29" s="1">
         <v>805</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I8" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="I27" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
